--- a/results/chess/chess-stats-terms-20.xlsx
+++ b/results/chess/chess-stats-terms-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desti\Documents\GitHub\P4P\results\chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D01615-E4DC-4D54-B449-583D8E07B55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39298B1A-0420-472F-86E7-CD69968CEFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="10740" windowHeight="13065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ugrad-009-01-stats-20" sheetId="1" r:id="rId1"/>
@@ -807,7 +807,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.14925373134328357</c:v>
+                  <c:v>0.1417910447761194</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.23809523809523808</c:v>
@@ -872,7 +872,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.29850746268656714</c:v>
+                  <c:v>0.30597014925373134</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.1746031746031744E-2</c:v>
@@ -1975,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,11 +2017,11 @@
       </c>
       <c r="C2">
         <f>raw!B2</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <f>raw!C2</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <f>SUM(B2:D2)</f>
@@ -2033,11 +2033,11 @@
       </c>
       <c r="H2" s="1">
         <f>C2/E2</f>
-        <v>0.14925373134328357</v>
+        <v>0.1417910447761194</v>
       </c>
       <c r="I2" s="1">
         <f>D2/E2</f>
-        <v>0.29850746268656714</v>
+        <v>0.30597014925373134</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2116,11 +2116,11 @@
       </c>
       <c r="C5">
         <f>AVERAGE(C2:C4)</f>
-        <v>19</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="D5">
         <f>AVERAGE(D2:D4)</f>
-        <v>26.333333333333332</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="E5">
         <f>AVERAGE(E2:E4)</f>
@@ -2132,11 +2132,11 @@
       </c>
       <c r="H5" s="1">
         <f>AVERAGE(H2:H4)</f>
-        <v>0.18303789177362487</v>
+        <v>0.18055032958457015</v>
       </c>
       <c r="I5" s="1">
         <f>AVERAGE(I2:I4)</f>
-        <v>0.20077077265400356</v>
+        <v>0.20325833484305825</v>
       </c>
     </row>
   </sheetData>
@@ -2149,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2F3F05-6040-485E-941D-4098ABFA4C94}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,10 +2171,10 @@
         <v>74</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
